--- a/biology/Zoologie/Ailurops_ursinus/Ailurops_ursinus.xlsx
+++ b/biology/Zoologie/Ailurops_ursinus/Ailurops_ursinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Couscous de Célèbes
-Le Couscous des Célèbes[2],[3],[4] (Ailurops ursinus) est une espèce de marsupiaux de la famille des Phalangeridae.
+Le Couscous des Célèbes (Ailurops ursinus) est une espèce de marsupiaux de la famille des Phalangeridae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique d'Indonésie, elle ne se rencontre que dans l'archipel de Sulawesi. Il vit au sommet des arbres dans la forêt tropicale humide.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il mesure environ 1,20 m (taille du corps : entre 56 et 61 cm ; taille de la queue : entre 54 et 58 cm) pour un poids compris entre 7 et 10 kg[5]. Son pelage gris, noir ou marron est plus clair au niveau du ventre et des extrémités. Sa longue queue préhensile est dépourvue de poils. Il est très mal connu : seuls 3 zoos en Europe en ont, le Zoo de Wrocław (Pologne), le parc Pairi Daiza (Belgique) et le Zoo de Zlin-Lesna (République Tchèque) (le mâle du Zoo de La Flèche (France) est parti en 2017 pour « participer à un programme de reproduction mené par le Zoo de Wrocław »[6]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mesure environ 1,20 m (taille du corps : entre 56 et 61 cm ; taille de la queue : entre 54 et 58 cm) pour un poids compris entre 7 et 10 kg. Son pelage gris, noir ou marron est plus clair au niveau du ventre et des extrémités. Sa longue queue préhensile est dépourvue de poils. Il est très mal connu : seuls 3 zoos en Europe en ont, le Zoo de Wrocław (Pologne), le parc Pairi Daiza (Belgique) et le Zoo de Zlin-Lesna (République Tchèque) (le mâle du Zoo de La Flèche (France) est parti en 2017 pour « participer à un programme de reproduction mené par le Zoo de Wrocław »).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit des feuilles d'arbres, de fruits et de bourgeons.
 </t>
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (20 septembre 2017)[7] et Mammal Species of the World (version 3, 2005)  (20 septembre 2017)[8] il existe les sous-espèces suivantes :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (20 septembre 2017) et Mammal Species of the World (version 3, 2005)  (20 septembre 2017) il existe les sous-espèces suivantes :
 Ailurops ursinus flavissimus (Feiler, 1977)
 Ailurops ursinus furvus (Miller &amp; Hollister, 1922)
 Ailurops ursinus togianus (Tate, 1945)
